--- a/Resurser/kalkuleringsark.xlsx
+++ b/Resurser/kalkuleringsark.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Inspiria</t>
   </si>
@@ -81,6 +82,30 @@
   </si>
   <si>
     <t>Antall</t>
+  </si>
+  <si>
+    <t>Antall Plasser</t>
+  </si>
+  <si>
+    <t>Inspiria Bak</t>
+  </si>
+  <si>
+    <t>Superland</t>
+  </si>
+  <si>
+    <t>K5 Bygget</t>
+  </si>
+  <si>
+    <t>Tune Senter</t>
+  </si>
+  <si>
+    <t>Adecco og If</t>
+  </si>
+  <si>
+    <t>Fagforbundet</t>
+  </si>
+  <si>
+    <t>Utenfor rundt Politiet</t>
   </si>
 </sst>
 </file>
@@ -449,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1183,4 +1208,136 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B2:B13)</f>
+        <v>1370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Resurser/kalkuleringsark.xlsx
+++ b/Resurser/kalkuleringsark.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Inspiria</t>
   </si>
@@ -105,7 +105,22 @@
     <t>Fagforbundet</t>
   </si>
   <si>
-    <t>Utenfor rundt Politiet</t>
+    <t>Brukte plasser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruker bil </t>
+  </si>
+  <si>
+    <t>Antall reisende</t>
+  </si>
+  <si>
+    <t>Bruker bil</t>
+  </si>
+  <si>
+    <t>% av totaltparking tilgjengelig</t>
+  </si>
+  <si>
+    <t>% av totaltantall besøkende</t>
   </si>
 </sst>
 </file>
@@ -1212,129 +1227,340 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="D2" s="3">
+        <f>B2*C2</f>
+        <v>56.25</v>
+      </c>
+      <c r="E2" s="2">
+        <f>B2/$B$13</f>
+        <v>9.1240875912408759E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <f>D2/$D$13</f>
+        <v>6.7742518215210448E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D12" si="0">B3*C3</f>
+        <v>30</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E12" si="1">B3/$B$13</f>
+        <v>2.9197080291970802E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F12" si="2">D3/$D$13</f>
+        <v>3.6129343048112238E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.145985401459854</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.14933461793219727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>205</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>127.1</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14963503649635038</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15306798338050218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>210</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15328467153284672</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10116216053471427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12408759124087591</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16378635515144216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>29.25</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2846715328467155E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5226109471909434E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9197080291970802E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>3.1312097308363943E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10">
         <v>115</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>74.75</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>8.3941605839416053E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>9.0022279761546337E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11">
         <v>110</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>71.5</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>8.0291970802919707E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>8.6108267598000846E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>71.5</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>8.0291970802919707E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>8.6108267598000846E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <f>SUM(B2:B13)</f>
+        <f>SUM(B2:B12)</f>
         <v>1370</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C12)</f>
+        <v>0.62636363636363646</v>
+      </c>
+      <c r="D13" s="3">
+        <f>SUM(D2:D12)</f>
+        <v>830.35</v>
+      </c>
+      <c r="E13" s="1">
+        <f>SUM(E2:E12)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F13" s="1">
+        <f>SUM(F2:F12)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1111</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C23" s="3">
+        <f>A23*B23</f>
+        <v>999.9</v>
       </c>
     </row>
   </sheetData>

--- a/Resurser/kalkuleringsark.xlsx
+++ b/Resurser/kalkuleringsark.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Inspiria</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>% av totaltantall besøkende</t>
+  </si>
+  <si>
+    <t>Fordelteprosenter</t>
   </si>
 </sst>
 </file>
@@ -1227,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1240,9 +1243,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1261,8 +1265,11 @@
       <c r="F1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1284,8 +1291,12 @@
         <f>D2/$D$13</f>
         <v>6.7742518215210448E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" s="1">
+        <f>E2</f>
+        <v>9.1240875912408759E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1307,8 +1318,12 @@
         <f t="shared" ref="F3:F12" si="2">D3/$D$13</f>
         <v>3.6129343048112238E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" s="1">
+        <f>H2+E3</f>
+        <v>0.12043795620437955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1330,8 +1345,12 @@
         <f t="shared" si="2"/>
         <v>0.14933461793219727</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H12" si="3">H3+E4</f>
+        <v>0.26642335766423353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1353,8 +1372,12 @@
         <f t="shared" si="2"/>
         <v>0.15306798338050218</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.41605839416058388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1376,8 +1399,12 @@
         <f t="shared" si="2"/>
         <v>0.10116216053471427</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.56934306569343063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1399,8 +1426,12 @@
         <f t="shared" si="2"/>
         <v>0.16378635515144216</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.6934306569343065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1422,8 +1453,12 @@
         <f t="shared" si="2"/>
         <v>3.5226109471909434E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.72627737226277367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1445,8 +1480,12 @@
         <f t="shared" si="2"/>
         <v>3.1312097308363943E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.75547445255474444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1468,8 +1507,12 @@
         <f t="shared" si="2"/>
         <v>9.0022279761546337E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.83941605839416045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1534,12 @@
         <f t="shared" si="2"/>
         <v>8.6108267598000846E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.91970802919708017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1514,8 +1561,12 @@
         <f t="shared" si="2"/>
         <v>8.6108267598000846E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>

--- a/Resurser/kalkuleringsark.xlsx
+++ b/Resurser/kalkuleringsark.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrik\Documents\GitHub\bach_current\Resurser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aga\Documents\GitHub\bach_current\Resurser\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Inspiria</t>
   </si>
@@ -124,6 +124,24 @@
   </si>
   <si>
     <t>Fordelteprosenter</t>
+  </si>
+  <si>
+    <t>Tid/Ankomst</t>
+  </si>
+  <si>
+    <t>Tidsinterval</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Biler</t>
+  </si>
+  <si>
+    <t>Totalt Biler</t>
+  </si>
+  <si>
+    <t>Interval/Biler</t>
   </si>
 </sst>
 </file>
@@ -167,13 +185,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -490,22 +515,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K43"/>
+  <dimension ref="B1:T43"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -525,7 +552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -548,7 +575,7 @@
         <v>0.18656716417910449</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -571,7 +598,7 @@
         <v>0.11194029850746269</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -594,7 +621,7 @@
         <v>0.11194029850746269</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -617,7 +644,7 @@
         <v>0.17164179104477612</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -640,7 +667,7 @@
         <v>0.16417910447761194</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -663,7 +690,7 @@
         <v>0.12686567164179105</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -686,7 +713,7 @@
         <v>4.4776119402985072E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -709,7 +736,7 @@
         <v>8.2089552238805971E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -734,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
@@ -742,7 +769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>520</v>
       </c>
@@ -756,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>545</v>
       </c>
@@ -776,7 +803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>615</v>
       </c>
@@ -795,8 +822,15 @@
       <c r="K20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="3:20" ht="30" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>634</v>
       </c>
@@ -815,8 +849,27 @@
       <c r="K21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>645</v>
       </c>
@@ -835,8 +888,27 @@
       <c r="K22">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N22" s="7">
+        <v>700</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>0</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0</v>
+      </c>
+      <c r="S22" s="7">
+        <v>0</v>
+      </c>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>655</v>
       </c>
@@ -855,8 +927,27 @@
       <c r="K23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N23" s="7">
+        <v>705</v>
+      </c>
+      <c r="O23" s="7">
+        <v>30</v>
+      </c>
+      <c r="P23" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>77</v>
+      </c>
+      <c r="R23" s="7">
+        <v>77</v>
+      </c>
+      <c r="S23" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>705</v>
       </c>
@@ -875,8 +966,27 @@
       <c r="K24">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N24" s="7">
+        <v>715</v>
+      </c>
+      <c r="O24" s="7">
+        <v>60</v>
+      </c>
+      <c r="P24" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>48</v>
+      </c>
+      <c r="R24" s="7">
+        <v>125</v>
+      </c>
+      <c r="S24" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>715</v>
       </c>
@@ -895,8 +1005,27 @@
       <c r="K25">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N25" s="7">
+        <v>719</v>
+      </c>
+      <c r="O25" s="7">
+        <v>24</v>
+      </c>
+      <c r="P25" s="7">
+        <v>114</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>14</v>
+      </c>
+      <c r="R25" s="7">
+        <v>139</v>
+      </c>
+      <c r="S25" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>719</v>
       </c>
@@ -915,8 +1044,27 @@
       <c r="K26">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N26" s="7">
+        <v>730</v>
+      </c>
+      <c r="O26" s="7">
+        <v>66</v>
+      </c>
+      <c r="P26" s="7">
+        <v>180</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>142</v>
+      </c>
+      <c r="R26" s="7">
+        <v>281</v>
+      </c>
+      <c r="S26" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>730</v>
       </c>
@@ -935,8 +1083,27 @@
       <c r="K27">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N27" s="7">
+        <v>739</v>
+      </c>
+      <c r="O27" s="7">
+        <v>54</v>
+      </c>
+      <c r="P27" s="7">
+        <v>234</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>12</v>
+      </c>
+      <c r="R27" s="7">
+        <v>293</v>
+      </c>
+      <c r="S27" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>739</v>
       </c>
@@ -955,8 +1122,27 @@
       <c r="K28">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N28" s="7">
+        <v>745</v>
+      </c>
+      <c r="O28" s="7">
+        <v>36</v>
+      </c>
+      <c r="P28" s="7">
+        <v>270</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>81</v>
+      </c>
+      <c r="R28" s="7">
+        <v>374</v>
+      </c>
+      <c r="S28" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>745</v>
       </c>
@@ -975,8 +1161,27 @@
       <c r="K29">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N29" s="7">
+        <v>752</v>
+      </c>
+      <c r="O29" s="7">
+        <v>42</v>
+      </c>
+      <c r="P29" s="7">
+        <v>312</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>57</v>
+      </c>
+      <c r="R29" s="7">
+        <v>431</v>
+      </c>
+      <c r="S29" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>752</v>
       </c>
@@ -995,8 +1200,27 @@
       <c r="K30">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N30" s="7">
+        <v>756</v>
+      </c>
+      <c r="O30" s="7">
+        <v>24</v>
+      </c>
+      <c r="P30" s="7">
+        <v>336</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>38</v>
+      </c>
+      <c r="R30" s="7">
+        <v>469</v>
+      </c>
+      <c r="S30" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>756</v>
       </c>
@@ -1015,8 +1239,27 @@
       <c r="K31">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N31" s="7">
+        <v>805</v>
+      </c>
+      <c r="O31" s="7">
+        <v>54</v>
+      </c>
+      <c r="P31" s="7">
+        <v>390</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>372</v>
+      </c>
+      <c r="R31" s="7">
+        <v>841</v>
+      </c>
+      <c r="S31" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>805</v>
       </c>
@@ -1035,8 +1278,27 @@
       <c r="K32">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N32" s="7">
+        <v>815</v>
+      </c>
+      <c r="O32" s="7">
+        <v>60</v>
+      </c>
+      <c r="P32" s="7">
+        <v>450</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>42</v>
+      </c>
+      <c r="R32" s="7">
+        <v>883</v>
+      </c>
+      <c r="S32" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>815</v>
       </c>
@@ -1055,8 +1317,27 @@
       <c r="K33">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N33" s="7">
+        <v>830</v>
+      </c>
+      <c r="O33" s="7">
+        <v>90</v>
+      </c>
+      <c r="P33" s="7">
+        <v>540</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>127</v>
+      </c>
+      <c r="R33" s="7">
+        <v>1010</v>
+      </c>
+      <c r="S33" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>830</v>
       </c>
@@ -1075,8 +1356,27 @@
       <c r="K34">
         <v>372</v>
       </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N34" s="7">
+        <v>845</v>
+      </c>
+      <c r="O34" s="7">
+        <v>90</v>
+      </c>
+      <c r="P34" s="7">
+        <v>630</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>16</v>
+      </c>
+      <c r="R34" s="7">
+        <v>1026</v>
+      </c>
+      <c r="S34" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>845</v>
       </c>
@@ -1095,8 +1395,27 @@
       <c r="K35">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N35" s="7">
+        <v>911</v>
+      </c>
+      <c r="O35" s="7">
+        <v>156</v>
+      </c>
+      <c r="P35" s="7">
+        <v>786</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>31</v>
+      </c>
+      <c r="R35" s="7">
+        <v>1057</v>
+      </c>
+      <c r="S35" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>911</v>
       </c>
@@ -1115,8 +1434,27 @@
       <c r="K36">
         <v>127</v>
       </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N36" s="7">
+        <v>930</v>
+      </c>
+      <c r="O36" s="7">
+        <v>114</v>
+      </c>
+      <c r="P36" s="7">
+        <v>900</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>12</v>
+      </c>
+      <c r="R36" s="7">
+        <v>1069</v>
+      </c>
+      <c r="S36" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>930</v>
       </c>
@@ -1135,8 +1473,27 @@
       <c r="K37">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N37" s="7">
+        <v>1000</v>
+      </c>
+      <c r="O37" s="7">
+        <v>180</v>
+      </c>
+      <c r="P37" s="7">
+        <v>1080</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>16</v>
+      </c>
+      <c r="R37" s="7">
+        <v>1085</v>
+      </c>
+      <c r="S37" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>1000</v>
       </c>
@@ -1155,8 +1512,15 @@
       <c r="K38">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>1045</v>
       </c>
@@ -1176,8 +1540,15 @@
         <f>SUM(K20:K38)</f>
         <v>1112</v>
       </c>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>1300</v>
       </c>
@@ -1190,8 +1561,15 @@
       <c r="G40">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>11</v>
       </c>
@@ -1206,7 +1584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="F42">
         <v>2030</v>
       </c>
@@ -1214,7 +1592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>11</v>
       </c>
@@ -1225,6 +1603,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1232,21 +1611,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1269,7 +1648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1675,7 @@
         <v>9.1240875912408759E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1323,7 +1702,7 @@
         <v>0.12043795620437955</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1350,7 +1729,7 @@
         <v>0.26642335766423353</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1377,7 +1756,7 @@
         <v>0.41605839416058388</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1404,7 +1783,7 @@
         <v>0.56934306569343063</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1431,7 +1810,7 @@
         <v>0.6934306569343065</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1458,7 +1837,7 @@
         <v>0.72627737226277367</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1485,7 +1864,7 @@
         <v>0.75547445255474444</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1512,7 +1891,7 @@
         <v>0.83941605839416045</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1539,7 +1918,7 @@
         <v>0.91970802919708017</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1566,7 +1945,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1591,7 +1970,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1602,7 +1981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1111</v>
       </c>

--- a/Resurser/kalkuleringsark.xlsx
+++ b/Resurser/kalkuleringsark.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aga\Documents\GitHub\bach_current\Resurser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\Documents\GitHub\bach_current\Resurser\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C32624-D0BD-4FCC-A475-9D02B859635B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
-    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>Inspiria</t>
   </si>
@@ -142,12 +144,45 @@
   </si>
   <si>
     <t>Interval/Biler</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Antallbiller</t>
+  </si>
+  <si>
+    <t>AntallBiler</t>
+  </si>
+  <si>
+    <t>Runde</t>
+  </si>
+  <si>
+    <t>Fra</t>
+  </si>
+  <si>
+    <t>Til</t>
+  </si>
+  <si>
+    <t>Intervall Tikk</t>
+  </si>
+  <si>
+    <t>Minutter</t>
+  </si>
+  <si>
+    <t>Antall biler / intervall</t>
+  </si>
+  <si>
+    <t>Totalantall biler hittill</t>
+  </si>
+  <si>
+    <t>Total antall intervaller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -200,10 +235,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Prosent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -219,7 +259,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -514,14 +554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -830,7 +870,7 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="3:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>634</v>
       </c>
@@ -867,7 +907,9 @@
       <c r="S21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T21" s="5"/>
+      <c r="T21" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22">
@@ -906,7 +948,10 @@
       <c r="S22" s="7">
         <v>0</v>
       </c>
-      <c r="T22" s="5"/>
+      <c r="T22" s="5">
+        <f>COUNT(N22)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23">
@@ -945,7 +990,10 @@
       <c r="S23" s="7">
         <v>2.6</v>
       </c>
-      <c r="T23" s="5"/>
+      <c r="T23" s="5">
+        <f>T22+1</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24">
@@ -984,7 +1032,10 @@
       <c r="S24" s="7">
         <v>0.8</v>
       </c>
-      <c r="T24" s="5"/>
+      <c r="T24" s="5">
+        <f t="shared" ref="T24:T37" si="3">T23+1</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25">
@@ -1023,7 +1074,10 @@
       <c r="S25" s="7">
         <v>0.6</v>
       </c>
-      <c r="T25" s="5"/>
+      <c r="T25" s="5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26">
@@ -1062,7 +1116,10 @@
       <c r="S26" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T26" s="5"/>
+      <c r="T26" s="5">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27">
@@ -1101,7 +1158,10 @@
       <c r="S27" s="7">
         <v>0.2</v>
       </c>
-      <c r="T27" s="5"/>
+      <c r="T27" s="5">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28">
@@ -1140,7 +1200,10 @@
       <c r="S28" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="T28" s="5"/>
+      <c r="T28" s="5">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29">
@@ -1179,7 +1242,10 @@
       <c r="S29" s="7">
         <v>1.4</v>
       </c>
-      <c r="T29" s="5"/>
+      <c r="T29" s="5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30">
@@ -1218,7 +1284,10 @@
       <c r="S30" s="7">
         <v>1.6</v>
       </c>
-      <c r="T30" s="5"/>
+      <c r="T30" s="5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31">
@@ -1257,7 +1326,10 @@
       <c r="S31" s="7">
         <v>6.9</v>
       </c>
-      <c r="T31" s="5"/>
+      <c r="T31" s="5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32">
@@ -1296,7 +1368,10 @@
       <c r="S32" s="7">
         <v>0.7</v>
       </c>
-      <c r="T32" s="5"/>
+      <c r="T32" s="5">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33">
@@ -1335,7 +1410,10 @@
       <c r="S33" s="7">
         <v>1.4</v>
       </c>
-      <c r="T33" s="5"/>
+      <c r="T33" s="5">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34">
@@ -1374,7 +1452,10 @@
       <c r="S34" s="7">
         <v>0.2</v>
       </c>
-      <c r="T34" s="5"/>
+      <c r="T34" s="5">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35">
@@ -1413,7 +1494,10 @@
       <c r="S35" s="7">
         <v>0.2</v>
       </c>
-      <c r="T35" s="5"/>
+      <c r="T35" s="5">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36">
@@ -1452,7 +1536,10 @@
       <c r="S36" s="7">
         <v>0.1</v>
       </c>
-      <c r="T36" s="5"/>
+      <c r="T36" s="5">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37">
@@ -1491,7 +1578,10 @@
       <c r="S37" s="7">
         <v>0.1</v>
       </c>
-      <c r="T37" s="5"/>
+      <c r="T37" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38">
@@ -1608,14 +1698,687 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2602C9C4-D35B-4A2E-B164-66606411BF3A}">
+  <dimension ref="C2:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="12" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>705</v>
+      </c>
+      <c r="D3">
+        <v>88</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H17" si="0">D3</f>
+        <v>88</v>
+      </c>
+      <c r="I3">
+        <f>H3</f>
+        <v>88</v>
+      </c>
+      <c r="J3">
+        <v>700</v>
+      </c>
+      <c r="K3">
+        <v>705</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M17" si="1">L3*6</f>
+        <v>30</v>
+      </c>
+      <c r="N3">
+        <f>M3</f>
+        <v>30</v>
+      </c>
+      <c r="O3" s="10">
+        <f>H3/M3</f>
+        <v>2.9333333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>715</v>
+      </c>
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I4">
+        <f>H4+I3</f>
+        <v>136</v>
+      </c>
+      <c r="J4">
+        <f>K3</f>
+        <v>705</v>
+      </c>
+      <c r="K4">
+        <v>715</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="N4">
+        <f>M4+N3</f>
+        <v>90</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" ref="O4:O17" si="2">H4/M4</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>719</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I17" si="3">H5+I4</f>
+        <v>150</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J17" si="4">K4</f>
+        <v>715</v>
+      </c>
+      <c r="K5">
+        <v>719</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N17" si="5">M5+N4</f>
+        <v>114</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>730</v>
+      </c>
+      <c r="D6">
+        <v>142</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>292</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>719</v>
+      </c>
+      <c r="K6">
+        <v>730</v>
+      </c>
+      <c r="L6">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="O6" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1515151515151514</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>739</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>304</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>730</v>
+      </c>
+      <c r="K7">
+        <v>739</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>234</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="2"/>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>745</v>
+      </c>
+      <c r="D8">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>385</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>739</v>
+      </c>
+      <c r="K8">
+        <v>745</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>270</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>752</v>
+      </c>
+      <c r="D9">
+        <v>57</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>442</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>745</v>
+      </c>
+      <c r="K9">
+        <v>752</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>312</v>
+      </c>
+      <c r="O9" s="10">
+        <f t="shared" si="2"/>
+        <v>1.3571428571428572</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>756</v>
+      </c>
+      <c r="D10">
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>752</v>
+      </c>
+      <c r="K10">
+        <v>756</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>336</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>805</v>
+      </c>
+      <c r="D11">
+        <v>372</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>852</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>756</v>
+      </c>
+      <c r="K11">
+        <v>805</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>390</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="2"/>
+        <v>6.8888888888888893</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>815</v>
+      </c>
+      <c r="D12">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>894</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>805</v>
+      </c>
+      <c r="K12">
+        <v>815</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>450</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>830</v>
+      </c>
+      <c r="D13">
+        <v>127</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>1021</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>815</v>
+      </c>
+      <c r="K13">
+        <v>830</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>540</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="2"/>
+        <v>1.4111111111111112</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>845</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>1037</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>830</v>
+      </c>
+      <c r="K14">
+        <v>845</v>
+      </c>
+      <c r="L14">
+        <v>15</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>630</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="2"/>
+        <v>0.17777777777777778</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>911</v>
+      </c>
+      <c r="D15">
+        <v>31</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1068</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>845</v>
+      </c>
+      <c r="K15">
+        <v>911</v>
+      </c>
+      <c r="L15">
+        <v>26</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>786</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.19871794871794871</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>930</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>1080</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>911</v>
+      </c>
+      <c r="K16">
+        <v>930</v>
+      </c>
+      <c r="L16">
+        <v>19</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="2"/>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>1096</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>930</v>
+      </c>
+      <c r="K17">
+        <v>1000</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>1080</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" si="2"/>
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>

--- a/Resurser/kalkuleringsark.xlsx
+++ b/Resurser/kalkuleringsark.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\Documents\GitHub\bach_current\Resurser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aga\Documents\GitHub\bach_current\Resurser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C32624-D0BD-4FCC-A475-9D02B859635B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -182,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,7 +242,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Prosent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -259,7 +258,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -554,14 +553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:D38"/>
+    <sheetView topLeftCell="M13" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -1698,20 +1697,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2602C9C4-D35B-4A2E-B164-66606411BF3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
     <col min="12" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
     <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2371,14 +2370,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>

--- a/Resurser/kalkuleringsark.xlsx
+++ b/Resurser/kalkuleringsark.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Ark2" sheetId="2" r:id="rId3"/>
+    <sheet name="Ark3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
   <si>
     <t>Inspiria</t>
   </si>
@@ -176,13 +177,100 @@
   </si>
   <si>
     <t>Total antall intervaller</t>
+  </si>
+  <si>
+    <t>Navn</t>
+  </si>
+  <si>
+    <t>Meter</t>
+  </si>
+  <si>
+    <t>Vei</t>
+  </si>
+  <si>
+    <t>SykehusveienNord</t>
+  </si>
+  <si>
+    <t>SykehusveienSør</t>
+  </si>
+  <si>
+    <t>Grålumveien Nord</t>
+  </si>
+  <si>
+    <t>Del 1 --&gt; Inn fra veien</t>
+  </si>
+  <si>
+    <t>Del 2 --&gt; Til rundkjøringen</t>
+  </si>
+  <si>
+    <t>Grålumveien Sør</t>
+  </si>
+  <si>
+    <t>Del 1 --&gt; Fra Rundkjøringen</t>
+  </si>
+  <si>
+    <t>Del 2 --&gt; Ut av grålumveien</t>
+  </si>
+  <si>
+    <t>Tuneveien Nord</t>
+  </si>
+  <si>
+    <t>Del 1 --&gt; Inn til kiwi</t>
+  </si>
+  <si>
+    <t>Del 2 --&gt; Fra kiwi til runkjøringen</t>
+  </si>
+  <si>
+    <t>Tuneveien Sør</t>
+  </si>
+  <si>
+    <t>Del 1 --&gt; Rundkjøring til Kiwi</t>
+  </si>
+  <si>
+    <t>Del 2 --&gt; Kiwi og ut av tuneveien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E6 </t>
+  </si>
+  <si>
+    <t>Fra E6 og Sarpsborg</t>
+  </si>
+  <si>
+    <t>Del 1 --&gt; Fra Rundkjøring til Quality og Politi</t>
+  </si>
+  <si>
+    <t>Del 2 --&gt; Fra quality til Inspiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del 3 --&gt; Fra Inspiria </t>
+  </si>
+  <si>
+    <t>Del 4 --&gt; Fra Del 3 inn til Caverion og Inspiria Bak</t>
+  </si>
+  <si>
+    <t>Del 5 --&gt; Ut mot 118 veien</t>
+  </si>
+  <si>
+    <t>Del 1 --&gt; Fra 118 inn til Inspiria Bak og Caverion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del 2 --&gt; Fra Caverion </t>
+  </si>
+  <si>
+    <t>Del 3 --&gt; Fra Del 2 inn til Inspiria</t>
+  </si>
+  <si>
+    <t>Del 4 --&gt; Fra Inspiria inn til Politihuset og Quality</t>
+  </si>
+  <si>
+    <t>Del 5 --&gt; Fra Quality til Rundkjøringen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +279,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -219,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -239,6 +335,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1700,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -2758,4 +2855,244 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>